--- a/menuAR.xlsx
+++ b/menuAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aliky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aliki-menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B667434-E62E-4997-8E23-5B0205A79C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7513FF1-E72B-4958-BCAA-0CD92B706FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CC42C16-0820-4E66-B67B-FAAD95487B1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{4CC42C16-0820-4E66-B67B-FAAD95487B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk111376100" localSheetId="0">Sheet1!$B$3</definedName>
-    <definedName name="_Hlk111461294" localSheetId="0">Sheet1!$C$33</definedName>
+    <definedName name="_Hlk111461294" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -269,6 +270,60 @@
   </si>
   <si>
     <t>جبنة الموتزاريلا بأعشاب بانكو مفتتة مع مايونيز مابل</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>drinks</t>
+  </si>
+  <si>
+    <t>ليموناد اليكي الخاص.png</t>
+  </si>
+  <si>
+    <t>Passtionfruit mojito.png</t>
+  </si>
+  <si>
+    <t>Blue Mojito.png</t>
+  </si>
+  <si>
+    <t>Strawberry mojito.png</t>
+  </si>
+  <si>
+    <t>Blueberry lemonade.png</t>
+  </si>
+  <si>
+    <t>peps.png</t>
+  </si>
+  <si>
+    <t>water.png</t>
+  </si>
+  <si>
+    <t>Ice tea.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passtionfruit mojito </t>
+  </si>
+  <si>
+    <t>Blue Mojito</t>
+  </si>
+  <si>
+    <t>Strawberry mojito</t>
+  </si>
+  <si>
+    <t>Blueberry lemonade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodas drinks </t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Ice tea</t>
+  </si>
+  <si>
+    <t>ليموناد اليكي الخاص</t>
   </si>
 </sst>
 </file>
@@ -278,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-2000000]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +348,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,18 +372,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,12 +391,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -362,6 +407,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD32038F-BC9F-4F4D-9C6E-307DD95DFEF7}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,300 +744,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>25</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>32</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>24</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>24</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="A6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>370</v>
+      </c>
+      <c r="C6">
+        <v>350</v>
+      </c>
+      <c r="D6">
+        <v>420</v>
+      </c>
+      <c r="E6">
+        <v>450</v>
+      </c>
+      <c r="F6">
+        <v>220</v>
+      </c>
+      <c r="G6">
+        <v>480</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -1006,30 +898,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D58A7C-6858-4EEF-8057-5F7B01A12E6B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1043,45 +935,59 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>29</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>29</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+      <c r="C6">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A965E-7A36-41CA-AE04-04BEE90C6230}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,21 +1009,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1131,45 +1037,59 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>29</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>29</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>380</v>
+      </c>
+      <c r="C6">
+        <v>380</v>
+      </c>
+      <c r="D6">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1F980C-8AFF-4F99-8BA1-59869F2E6632}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,21 +1111,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>3</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1219,45 +1139,59 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>30</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>34</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>610</v>
+      </c>
+      <c r="C6">
+        <v>810</v>
+      </c>
+      <c r="D6">
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -1267,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70172219-E402-445A-AF5F-B88FB20D0E15}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,24 +1213,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1313,54 +1247,71 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>26</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>27</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>27</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>680</v>
+      </c>
+      <c r="C6">
+        <v>460</v>
+      </c>
+      <c r="D6">
+        <v>840</v>
+      </c>
+      <c r="E6">
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -1370,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA29EB2-7651-491F-B4A3-F676B0A20A6D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,21 +1333,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1410,48 +1361,230 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>25</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>840</v>
+      </c>
+      <c r="C6">
+        <v>830</v>
+      </c>
+      <c r="D6">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E3CFC1-5AB1-41EB-A5FD-1C1E76138BFF}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="9">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="10">
+        <v>250</v>
+      </c>
+      <c r="C6" s="10">
+        <v>300</v>
+      </c>
+      <c r="D6" s="10">
+        <v>320</v>
+      </c>
+      <c r="E6" s="10">
+        <v>600</v>
+      </c>
+      <c r="F6" s="10">
+        <v>320</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/menuAR.xlsx
+++ b/menuAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aliki-menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7513FF1-E72B-4958-BCAA-0CD92B706FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655DB592-E15C-44AC-A47B-79E269B4DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{4CC42C16-0820-4E66-B67B-FAAD95487B1B}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="8655" firstSheet="3" activeTab="6" xr2:uid="{4CC42C16-0820-4E66-B67B-FAAD95487B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1565,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="10">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="C6" s="10">
         <v>300</v>
@@ -1580,8 +1580,12 @@
         <v>320</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>710</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/menuAR.xlsx
+++ b/menuAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aliki-menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655DB592-E15C-44AC-A47B-79E269B4DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B1A30-AFB6-4FB9-9CF9-74F116418D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="8655" firstSheet="3" activeTab="6" xr2:uid="{4CC42C16-0820-4E66-B67B-FAAD95487B1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{4CC42C16-0820-4E66-B67B-FAAD95487B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk111376100" localSheetId="0">Sheet1!$B$3</definedName>
     <definedName name="_Hlk111461294" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -62,75 +60,27 @@
     <t>Mozzarella_pop-removebg.png</t>
   </si>
   <si>
-    <t>كرات المكرونه بالجبن</t>
-  </si>
-  <si>
-    <t>لولي بوب اجنحة الدجاج</t>
-  </si>
-  <si>
     <t>قطع الدجاج المحلاة المقرمشة</t>
   </si>
   <si>
-    <t>4 قطع الدجاج المقلية المغطاة بطبقة من الماربل</t>
-  </si>
-  <si>
-    <t>شرائح دجاج الكاجون المقرمشة</t>
-  </si>
-  <si>
     <t>الذرة المكسيكية المشوية</t>
   </si>
   <si>
-    <t>كرات الموزاريلا المقرمشة</t>
-  </si>
-  <si>
     <t>سلطة الشمندر بالسبانخ</t>
   </si>
   <si>
     <t>سلطة أليكي الخاصة</t>
   </si>
   <si>
-    <t>سلطة سيزر</t>
-  </si>
-  <si>
-    <t>بطاطس الديناميت باللحم</t>
-  </si>
-  <si>
-    <t>بطاطس البافلو الدجاج المقرمش</t>
-  </si>
-  <si>
-    <t>بطاطس مقلي عادي</t>
-  </si>
-  <si>
     <t>تشيز برجر</t>
   </si>
   <si>
     <t>باز برجر</t>
   </si>
   <si>
-    <t>برجر أليكي الخاص (بالهالبينو)</t>
-  </si>
-  <si>
-    <t>شريحة لحم بلاك أنجوس بطريقة الخاصة ، جبنة شيدر ، فطر مشوي ، هلابينو ، مربى بيكون وجبنة الإيطالية الكريمية ، وخبز البحر الأحمر بالشمندر</t>
-  </si>
-  <si>
-    <t>برجر الدجاج المقلي الكلاسيكي</t>
-  </si>
-  <si>
-    <t>برجر الدجاج المقلي بالماربل المحلى</t>
-  </si>
-  <si>
-    <t>سبليت برجر دجاج  (مشوي)</t>
-  </si>
-  <si>
-    <t>برجر بيستو الدجاج  (مشوي)</t>
-  </si>
-  <si>
     <t>ماك اند تشيز هوت دوج</t>
   </si>
   <si>
-    <t>هوت دوج كلاسيكي</t>
-  </si>
-  <si>
     <t>mac_cheeseBall.png</t>
   </si>
   <si>
@@ -212,66 +162,6 @@
     <t>Aliki_special__burger___-_SPICY.png</t>
   </si>
   <si>
-    <t>لولي بوب اجنحة الدجاج الساخنة تقدم مع بلو تشيز رانش</t>
-  </si>
-  <si>
-    <t>كرات ماك آند تشيز مقلية على الطريقة الأمريكية تقدم مع صلصة مابل جليز محلية الصنع</t>
-  </si>
-  <si>
-    <t>نقانق لحم بقري مشوي ، حلقات بصل مقلية مقرمشة، جبن، خس مع صلصة الخردل والطماطم، مايونيز وخبز بطاطس</t>
-  </si>
-  <si>
-    <t>هوت دوج التاكس ماكس مع او بدون هالبينو</t>
-  </si>
-  <si>
-    <t>نقانق لحم بقري مشوي، يقدم مع معكرونة بالجبن الكريميه وصلصة الطماطم وخبز البطاطس</t>
-  </si>
-  <si>
-    <t>نقانق لحم بقري مشوي، ذرة، هلابينو، قطع لحم بقري مقدد، موزاريلا ذائبة، حلقات بصل مقرمشة، بابريكا أيولي ومايونيز مابل، وخبز البطاطس</t>
-  </si>
-  <si>
-    <t>صدور الدجاج مغطاة بفتات البانكو بالأعشاب وشريحة الجبن والمخلل وخس آيسبيرج المبشور وبابريكا أيولي وخبز البريوش</t>
-  </si>
-  <si>
-    <t>صدر دجاج مقرمش ، جبنة أمريكية ، ملفوف أحمر كول سلو ، صوص الماربل بالعسل وخبز بريوش</t>
-  </si>
-  <si>
-    <t>صدر دجاج مشوي بالباربكيو ، جبنة سويسرية ، خس آيسبيرج مبشور ، مخلل ، مايونيز بنجر العسل وخبز الفحم</t>
-  </si>
-  <si>
-    <t>صدر دجاج مشوي متبل ، جبنة إيمنتال ، طماطم شبه مجففة ، خس آيسبرغ مع صلصة بيستو وخبز بريوش</t>
-  </si>
-  <si>
-    <t>قطعة لحم بلاك أنجوس (دبل) ، مع جبنة (دبل) ، بصل مشوي وخس آيس بيرج مع صوص خاص وخبز البطاطا</t>
-  </si>
-  <si>
-    <t>قطعة لحم بلاك أنجوس وجبنة الإيطالية الكريمية ، صوص بيكون جام ، خس أخضر ، وخبز بريوش</t>
-  </si>
-  <si>
-    <t>سلطة شرائح الشمندر والتين والكمثرى والخس الأخضر وبذور اليقطين والمشمش وجبن الفيتا والتوت البري المجفف مع خردل بوميري</t>
-  </si>
-  <si>
-    <t>سلطة الشمندر مع السبانخ الصغيرة ،الكاجو المحمص ،مغطاة بالعسل والليمون</t>
-  </si>
-  <si>
-    <t>سلطة بصلصة السيزر ، خس روماني ،دجاج مشوي ، لحم بقري مقدد ، خبز محمص بالأعشاب وجبن بارميزان مبشور</t>
-  </si>
-  <si>
-    <t>بطاطس مقلية بالحم البقري المفروم الطازج على الطريقة المكسيكية ،هلابينو ،بصل مقلي ،لحم بقري مقدد ،شيدر ذابت وصب صلصة سريراتشا رانش</t>
-  </si>
-  <si>
-    <t>بطاطس ، قطع دجاج بالصوص الحار ،هلابينو ،جبنة موزاريلا و شيدر ذائبة مع صلصتنا الخاصة</t>
-  </si>
-  <si>
-    <t>شرائح الدجاج بنكهة الكاجون المقلية ، تقدم مع صلصة البيت المخلوطة</t>
-  </si>
-  <si>
-    <t>الذرة المشوي مغطى بصلصة الكريمية المكسيكية</t>
-  </si>
-  <si>
-    <t>جبنة الموتزاريلا بأعشاب بانكو مفتتة مع مايونيز مابل</t>
-  </si>
-  <si>
     <t>cal</t>
   </si>
   <si>
@@ -302,28 +192,139 @@
     <t>Ice tea.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Passtionfruit mojito </t>
-  </si>
-  <si>
-    <t>Blue Mojito</t>
-  </si>
-  <si>
-    <t>Strawberry mojito</t>
-  </si>
-  <si>
-    <t>Blueberry lemonade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodas drinks </t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Ice tea</t>
-  </si>
-  <si>
     <t>ليموناد اليكي الخاص</t>
+  </si>
+  <si>
+    <t>مياة</t>
+  </si>
+  <si>
+    <t>باشن فروت موهيتو</t>
+  </si>
+  <si>
+    <t>الموهيتو الازرق</t>
+  </si>
+  <si>
+    <t>موهيتو الفراوله</t>
+  </si>
+  <si>
+    <t>ليموناد التوت الازرق</t>
+  </si>
+  <si>
+    <t>شاي مثلج</t>
+  </si>
+  <si>
+    <t>مشروبات غازية</t>
+  </si>
+  <si>
+    <t>كرات المكرونه بالجبنه</t>
+  </si>
+  <si>
+    <t>لولي بوب الدجاج</t>
+  </si>
+  <si>
+    <t>قطع دجاج الكيجن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كرات الموزاريلا المقرمشة </t>
+  </si>
+  <si>
+    <t>كرات ماك آند تشيز المقلية على الطريقة الأمريكية تقدم مع صوص الميبل.</t>
+  </si>
+  <si>
+    <t>لولي بوب اجنحة الدجاج المقرمشة تقدم مع رانش الجبنة الزرقاء.</t>
+  </si>
+  <si>
+    <t>قطع دجاج مقلية مغطاة بطبقة من صوص الميبل.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قطع الدجاج المقلية بنكهة الكيجن.</t>
+  </si>
+  <si>
+    <t>قطع الذرة المشوية المغطاة بالصلصة المكسيكية.</t>
+  </si>
+  <si>
+    <t>كرات جبنة الموزاريلا بأعشاب البانكو، صوص المايونيز و الميبل.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلطة السيزر </t>
+  </si>
+  <si>
+    <t>سلطة الشمندر مع السبانخ، الكاجو المحمص، و صلصة العسل بالليمون.</t>
+  </si>
+  <si>
+    <t>سلطة بشرائح الشمندر ، التين ، الكمثرى ، الخس ، بذور اليقطين ،المشمش ، جبنة الفيتا والتوت البري المجفف مع الخردل.</t>
+  </si>
+  <si>
+    <t>خس روماني ، دجاج مشوي ، لحم بقري مقدد ، خبز محمص بالأعشاب ، جبنة البارميزان و صلصة السيزر.</t>
+  </si>
+  <si>
+    <t>بطاطس الديناميت باللحم البقري</t>
+  </si>
+  <si>
+    <t>بطاطس بافلو مع الدجاج المقرمش</t>
+  </si>
+  <si>
+    <t>بطاطس مقلية</t>
+  </si>
+  <si>
+    <t>بطاطس مقلية بالجبنة واللحم البقري المفروم والمقدد مع صوص السيراتشا والهلابينو الحار على الطريقة المكسيكية.</t>
+  </si>
+  <si>
+    <t>البطاطس المقلية مع قطع الدجاج بالصوص الحار، الهلابينو، جبنة الموزاريلا والشيدر الذائبة وصوص اليكي الخاص.</t>
+  </si>
+  <si>
+    <t>برجر أليكي الخاص</t>
+  </si>
+  <si>
+    <t>برجر لحم بلاك أنجوس بدون مواد إضافية أو مواد حافظة بالجبنة الذائبة، بصل مشوي، خس آيسبيرج، صوص اليكي الخاص وخبز البطاطس.</t>
+  </si>
+  <si>
+    <t>برجر لحم بلاك أنجوس بدون مواد إضافية أو مواد حافظة بالجبنة الإيطالية الذائبة، صوص بيكون جام، والخس و خبز البريوش.</t>
+  </si>
+  <si>
+    <t>برجر لحم بلاك أنجوس بدون مواد إضافية أو مواد حافظة بطريقة اليكي الخاصة، الفطر المشوي، الهلابينو، صوص بيكون جام والجبنة الإيطالية، وخبز الشمندر.</t>
+  </si>
+  <si>
+    <t>برجر الدجاج المقلي</t>
+  </si>
+  <si>
+    <t>برجر الدجاج المقلي بالصلصة الميبل</t>
+  </si>
+  <si>
+    <t>سبليت برجر الدجاج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برجر الدجاج بالبيستو </t>
+  </si>
+  <si>
+    <t>صدر الدجاج المقلي المغطى بفتات الخبز بالأعشاب، شريحة الجبنه الذائبة والمخلل وخس آيسبيرج وصوص البابريكا وخبز البريوش.</t>
+  </si>
+  <si>
+    <t>برجر صدر الدجاج المقرمش مع الجبنة الأمريكية الذائبة، كول سلو، صوص الميبل بالعسل وخبز البريوش.</t>
+  </si>
+  <si>
+    <t>صدر الدجاج المشوي بصلصة الباربكيو والجبنة السويسرية، خس آيسبيرج، مخلل، مايونيز الشمندر والعسل وخبز الفحم.</t>
+  </si>
+  <si>
+    <t>صدر الدجاج المشوي، مع جبنة إيمنتال، الطماطم المجففة، خس آيسبيرج، صوص البيستو وخبز البريوش.</t>
+  </si>
+  <si>
+    <t>تكس مكس هوت دوج</t>
+  </si>
+  <si>
+    <t>كلاسيك هوت دوج</t>
+  </si>
+  <si>
+    <t>نقانق اللحم البقري المشوية بالهلابينو، الذرة، قطع اللحم البقري المقدد، جبنة الموزاريلا، حلقات البصل بصوص البابريكا وميبل مايونيز، وخبز البطاطس.</t>
+  </si>
+  <si>
+    <t>نقانق اللحم البقري المشوي بالمعكرونة، الجبنة الذائبة، كاتشب وخبز البطاطس.</t>
+  </si>
+  <si>
+    <t>نقانق لحم بقري مشوي، حلقات بصل مقلية مقرمشة، جبن، خس مع صلصة الخردل والطماطم، مايونيز وخبز بطاطس.</t>
+  </si>
+  <si>
+    <t>spicy</t>
   </si>
 </sst>
 </file>
@@ -396,22 +397,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,10 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD32038F-BC9F-4F4D-9C6E-307DD95DFEF7}">
-  <dimension ref="A1:G48"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -770,22 +772,22 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -793,102 +795,125 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
+      <c r="G3" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="9">
         <v>25</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="9">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
-        <v>32</v>
-      </c>
-      <c r="E5" s="7">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>370</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>350</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>420</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>450</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>220</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>480</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,17 +923,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D58A7C-6858-4EEF-8057-5F7B01A12E6B}">
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -925,68 +951,82 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B6" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
+      <c r="C6" s="8">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>280</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>210</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>430</v>
       </c>
     </row>
@@ -997,10 +1037,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A965E-7A36-41CA-AE04-04BEE90C6230}">
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1027,68 +1068,80 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="8">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="8">
         <v>29</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>380</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>380</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>420</v>
       </c>
     </row>
@@ -1099,10 +1152,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1F980C-8AFF-4F99-8BA1-59869F2E6632}">
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3">
         <v>3</v>
@@ -1129,68 +1183,82 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="8">
         <v>30</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="8">
         <v>34</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>610</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>810</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>830</v>
       </c>
     </row>
@@ -1201,10 +1269,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70172219-E402-445A-AF5F-B88FB20D0E15}">
-  <dimension ref="A1:E6"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1234,83 +1303,100 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="8">
         <v>26</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="8">
         <v>27</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="8">
         <v>27</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>680</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>460</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>840</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>880</v>
       </c>
     </row>
@@ -1321,10 +1407,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA29EB2-7651-491F-B4A3-F676B0A20A6D}">
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="E7" sqref="E1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -1351,68 +1438,82 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="8">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="8">
         <v>23</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>840</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>830</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>680</v>
       </c>
     </row>
@@ -1422,169 +1523,185 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E3CFC1-5AB1-41EB-A5FD-1C1E76138BFF}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D8CD9A-7A2F-4A47-AEBA-AF9A07BB12DB}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="9">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="6">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="6">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="6">
         <v>6</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="6">
         <v>7</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>84</v>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>91</v>
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="7">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C6" s="7">
         <v>14</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="7">
         <v>14</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="7">
         <v>14</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="7">
         <v>14</v>
       </c>
-      <c r="G5" s="10">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G6" s="7">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="10">
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7">
         <v>460</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="7">
         <v>300</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="7">
         <v>320</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="7">
         <v>600</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="7">
         <v>320</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="G7" s="7">
         <v>710</v>
+      </c>
+      <c r="H7" s="7">
+        <v>150</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
